--- a/swings/2021-11-22/BINANCE_SPOT_PHA_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_PHA_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.6820000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>0.6906</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -817,6 +831,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>0.6856</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +888,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>0.6871</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -923,6 +943,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +998,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.673</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1055,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>0.6834</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1085,6 +1112,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.6796000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1167,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1191,6 +1222,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>0.6872</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1277,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1297,6 +1332,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.6663</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1349,6 +1387,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1403,6 +1442,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>0.6739000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1457,6 +1499,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>0.6709000000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1509,6 +1554,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1563,6 +1609,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>0.6748000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1615,6 +1664,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1669,6 +1719,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.6651</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1721,6 +1774,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1773,6 +1827,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1825,6 +1880,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1877,6 +1933,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1929,6 +1986,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1981,6 +2039,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2035,6 +2094,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>0.6879000000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2149,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2202,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2193,6 +2257,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.6712</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2247,6 +2314,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>0.6782</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2301,6 +2371,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>0.674</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2355,6 +2428,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>0.6838000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2407,6 +2483,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2461,6 +2538,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>0.6779000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2515,6 +2595,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.6807000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2569,6 +2652,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>0.676</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2621,6 +2707,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2673,6 +2760,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2725,6 +2813,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2777,6 +2866,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2829,6 +2919,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2883,6 +2974,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>0.6872</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2935,6 +3029,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2987,6 +3082,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3039,6 +3135,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3093,6 +3190,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>0.677</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3147,6 +3247,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>0.6812</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3201,6 +3304,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3253,6 +3359,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3307,6 +3414,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>0.6860000000000001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3361,6 +3471,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>0.6814</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3413,6 +3526,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3465,6 +3579,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3519,6 +3634,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>0.6902</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3573,6 +3691,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>0.6884</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3625,6 +3746,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3679,6 +3801,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>0.6990000000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3733,6 +3858,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.6788000000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3785,6 +3913,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3839,6 +3968,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>0.6870000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3891,6 +4023,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3943,6 +4076,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3997,6 +4131,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.6796000000000001</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4049,6 +4186,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4103,6 +4241,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>0.6852</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4155,6 +4296,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4207,6 +4349,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4259,6 +4402,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4311,6 +4455,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4363,6 +4508,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4417,6 +4563,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>0.6712</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4469,6 +4618,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4523,6 +4673,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.6823</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4575,6 +4728,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4627,6 +4781,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4679,6 +4834,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4733,6 +4889,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>0.6667000000000001</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4785,6 +4944,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4839,6 +4999,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>0.6850000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4891,6 +5054,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4945,6 +5109,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>0.6808000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4999,6 +5166,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.6838000000000001</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5051,6 +5221,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5105,6 +5276,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.6728000000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5157,6 +5331,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5211,6 +5386,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.6845</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5263,6 +5441,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5315,6 +5494,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5369,6 +5549,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.6765</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5421,6 +5604,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5475,6 +5659,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>0.6830000000000001</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5527,6 +5714,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5579,6 +5767,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5631,6 +5820,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5685,6 +5875,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.6744</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5737,6 +5930,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5789,6 +5983,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5841,6 +6036,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5893,6 +6089,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5945,6 +6142,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5997,6 +6195,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6049,6 +6248,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6103,6 +6303,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>0.7100000000000001</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6157,6 +6360,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.6950000000000001</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6211,6 +6417,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>0.7117</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6263,6 +6472,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6315,6 +6525,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6369,6 +6580,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.6996</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6421,6 +6635,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6473,6 +6688,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6527,6 +6743,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>0.7300000000000001</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6581,6 +6800,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.7023</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6635,6 +6857,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>0.7232000000000001</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6687,6 +6912,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6739,6 +6965,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6791,6 +7018,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6845,6 +7073,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>0.7007</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6899,6 +7130,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>0.7055</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6953,6 +7187,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.6966</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7007,6 +7244,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>0.7081000000000001</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7059,6 +7299,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7113,6 +7354,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>0.6978000000000001</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7165,6 +7409,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7219,6 +7464,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.7067</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7271,6 +7519,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7325,6 +7574,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>0.6950000000000001</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7379,6 +7631,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.7002</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7431,6 +7686,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7485,6 +7741,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>0.6913</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7539,6 +7798,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>0.6958000000000001</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7593,6 +7855,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.6919000000000001</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7645,6 +7910,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7697,6 +7963,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7751,6 +8018,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>0.6955</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7803,6 +8073,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7857,6 +8128,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.6909000000000001</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7909,6 +8183,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7961,6 +8236,7 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8015,6 +8291,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O143" t="n">
+        <v>0.6955</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8069,6 +8348,9 @@
           <t>PHAUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>0.6880000000000001</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8122,6 +8404,9 @@
         <is>
           <t>PHAUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.6911</v>
       </c>
     </row>
   </sheetData>
